--- a/kaiseki/around_100.xlsx
+++ b/kaiseki/around_100.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{42A58D2E-D5CA-48C8-8BA7-9F77B007CBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A90845D-3CB3-4CBA-9298-783201F50777}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -622,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -642,9 +642,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3362,6 +3361,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3649,7 +3652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
@@ -8533,7 +8536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241070DA-DD4D-4AB4-A3A9-36992DF9DD98}">
   <dimension ref="A1:EK102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="Z36" sqref="Z36:AB49"/>
     </sheetView>
   </sheetViews>
@@ -8686,171 +8689,171 @@
         <v>32.888888888888893</v>
       </c>
       <c r="AD2">
-        <f>B4</f>
+        <f t="shared" ref="AD2:AQ2" si="1">B4</f>
         <v>48.997429305912597</v>
       </c>
       <c r="AE2">
-        <f>C4</f>
+        <f t="shared" si="1"/>
         <v>38.917716827279463</v>
       </c>
       <c r="AF2">
-        <f>D4</f>
+        <f t="shared" si="1"/>
         <v>44.727080021197658</v>
       </c>
       <c r="AG2">
-        <f>E4</f>
+        <f t="shared" si="1"/>
         <v>57.17344753747323</v>
       </c>
       <c r="AH2">
-        <f>F4</f>
+        <f t="shared" si="1"/>
         <v>48.378893833439292</v>
       </c>
       <c r="AI2">
-        <f>G4</f>
+        <f t="shared" si="1"/>
         <v>37.481481481481481</v>
       </c>
       <c r="AJ2">
-        <f>H4</f>
+        <f t="shared" si="1"/>
         <v>43.451981195433177</v>
       </c>
       <c r="AK2">
-        <f>I4</f>
+        <f t="shared" si="1"/>
         <v>47.680763983628921</v>
       </c>
       <c r="AL2">
-        <f>J4</f>
+        <f t="shared" si="1"/>
         <v>49.189189189189193</v>
       </c>
       <c r="AM2">
-        <f>K4</f>
+        <f t="shared" si="1"/>
         <v>44.519015659955258</v>
       </c>
       <c r="AN2">
-        <f>L4</f>
+        <f t="shared" si="1"/>
         <v>50.458715596330272</v>
       </c>
       <c r="AO2">
-        <f>M4</f>
+        <f t="shared" si="1"/>
         <v>40.253565768621243</v>
       </c>
       <c r="AP2">
-        <f>N4</f>
+        <f t="shared" si="1"/>
         <v>43.248800548320773</v>
       </c>
       <c r="AQ2">
-        <f>O4</f>
+        <f t="shared" si="1"/>
         <v>37.95918367346939</v>
       </c>
       <c r="AR2">
-        <f>B5</f>
+        <f t="shared" ref="AR2:BE2" si="2">B5</f>
         <v>49.832134292565947</v>
       </c>
       <c r="AS2">
-        <f>C5</f>
+        <f t="shared" si="2"/>
         <v>49.595375722543352</v>
       </c>
       <c r="AT2">
-        <f>D5</f>
+        <f t="shared" si="2"/>
         <v>50.80236486486487</v>
       </c>
       <c r="AU2">
-        <f>E5</f>
+        <f t="shared" si="2"/>
         <v>64.047716988893455</v>
       </c>
       <c r="AV2">
-        <f>F5</f>
+        <f t="shared" si="2"/>
         <v>52.903600464576073</v>
       </c>
       <c r="AW2">
-        <f>G5</f>
+        <f t="shared" si="2"/>
         <v>36.927899686520377</v>
       </c>
       <c r="AX2">
-        <f>H5</f>
+        <f t="shared" si="2"/>
         <v>48.755312689738908</v>
       </c>
       <c r="AY2">
-        <f>I5</f>
+        <f t="shared" si="2"/>
         <v>54.738562091503283</v>
       </c>
       <c r="AZ2">
-        <f>J5</f>
+        <f t="shared" si="2"/>
         <v>51.904761904761912</v>
       </c>
       <c r="BA2">
-        <f>K5</f>
+        <f t="shared" si="2"/>
         <v>46.510110893672532</v>
       </c>
       <c r="BB2">
-        <f>L5</f>
+        <f t="shared" si="2"/>
         <v>52.626597255087553</v>
       </c>
       <c r="BC2">
-        <f>M5</f>
+        <f t="shared" si="2"/>
         <v>53.941710463449603</v>
       </c>
       <c r="BD2">
-        <f>N5</f>
+        <f t="shared" si="2"/>
         <v>52.631578947368418</v>
       </c>
       <c r="BE2">
-        <f>O5</f>
+        <f t="shared" si="2"/>
         <v>42.405420666290233</v>
       </c>
       <c r="BF2">
-        <f>B6</f>
+        <f t="shared" ref="BF2:BS2" si="3">B6</f>
         <v>43.00285597715218</v>
       </c>
       <c r="BG2">
-        <f>C6</f>
+        <f t="shared" si="3"/>
         <v>40.870387890255437</v>
       </c>
       <c r="BH2">
-        <f>D6</f>
+        <f t="shared" si="3"/>
         <v>45.153743315508017</v>
       </c>
       <c r="BI2">
-        <f>E6</f>
+        <f t="shared" si="3"/>
         <v>56.445381102915348</v>
       </c>
       <c r="BJ2">
-        <f>F6</f>
+        <f t="shared" si="3"/>
         <v>41.742286751361164</v>
       </c>
       <c r="BK2">
-        <f>G6</f>
+        <f t="shared" si="3"/>
         <v>34.238310708898943</v>
       </c>
       <c r="BL2">
-        <f>H6</f>
+        <f t="shared" si="3"/>
         <v>44.289568345323737</v>
       </c>
       <c r="BM2">
-        <f>I6</f>
+        <f t="shared" si="3"/>
         <v>33.967271118973898</v>
       </c>
       <c r="BN2">
-        <f>J6</f>
+        <f t="shared" si="3"/>
         <v>40.026773761713521</v>
       </c>
       <c r="BO2">
-        <f>K6</f>
+        <f t="shared" si="3"/>
         <v>35.183443085606783</v>
       </c>
       <c r="BP2">
-        <f>L6</f>
+        <f t="shared" si="3"/>
         <v>39.25348646431501</v>
       </c>
       <c r="BQ2">
-        <f>M6</f>
+        <f t="shared" si="3"/>
         <v>47.968319559228647</v>
       </c>
       <c r="BR2">
-        <f>N6</f>
+        <f t="shared" si="3"/>
         <v>47.340187751452838</v>
       </c>
       <c r="BS2">
-        <f>O6</f>
+        <f t="shared" si="3"/>
         <v>36.167400881057269</v>
       </c>
     </row>
@@ -9089,507 +9092,507 @@
         <v>47.632890365448503</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:AC15" si="1">B8</f>
+        <f t="shared" ref="P7:AC7" si="4">B8</f>
         <v>59.113670505758641</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>48.060754000542453</v>
       </c>
       <c r="R7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>50.087633885102242</v>
       </c>
       <c r="S7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>78.792724365380778</v>
       </c>
       <c r="T7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>49.881876476544043</v>
       </c>
       <c r="U7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>38.511749347258487</v>
       </c>
       <c r="V7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>61.514919663351193</v>
       </c>
       <c r="W7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>32.03817314246762</v>
       </c>
       <c r="X7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>55.306122448979593</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>43.582975915539421</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>58.905524006195137</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>66.717791411042953</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>59.083305453328869</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>39.706275033377842</v>
       </c>
       <c r="AD7">
-        <f>B9</f>
+        <f t="shared" ref="AD7:AQ7" si="5">B9</f>
         <v>62.629175678923332</v>
       </c>
       <c r="AE7">
-        <f>C9</f>
+        <f t="shared" si="5"/>
         <v>57.033374536464777</v>
       </c>
       <c r="AF7">
-        <f>D9</f>
+        <f t="shared" si="5"/>
         <v>55.43577562579938</v>
       </c>
       <c r="AG7">
-        <f>E9</f>
+        <f t="shared" si="5"/>
         <v>82.210391040939967</v>
       </c>
       <c r="AH7">
-        <f>F9</f>
+        <f t="shared" si="5"/>
         <v>51.606374905135347</v>
       </c>
       <c r="AI7">
-        <f>G9</f>
+        <f t="shared" si="5"/>
         <v>37.627118644067799</v>
       </c>
       <c r="AJ7">
-        <f>H9</f>
+        <f t="shared" si="5"/>
         <v>66.235685260435901</v>
       </c>
       <c r="AK7">
-        <f>I9</f>
+        <f t="shared" si="5"/>
         <v>48.741296197107658</v>
       </c>
       <c r="AL7">
-        <f>J9</f>
+        <f t="shared" si="5"/>
         <v>55.903104421448738</v>
       </c>
       <c r="AM7">
-        <f>K9</f>
+        <f t="shared" si="5"/>
         <v>42.273697043584271</v>
       </c>
       <c r="AN7">
-        <f>L9</f>
+        <f t="shared" si="5"/>
         <v>57.769696969696973</v>
       </c>
       <c r="AO7">
-        <f>M9</f>
+        <f t="shared" si="5"/>
         <v>68.867445403758254</v>
       </c>
       <c r="AP7">
-        <f>N9</f>
+        <f t="shared" si="5"/>
         <v>54.702495201535513</v>
       </c>
       <c r="AQ7">
-        <f>O9</f>
+        <f t="shared" si="5"/>
         <v>53.120824584844442</v>
       </c>
       <c r="AR7">
-        <f>B10</f>
+        <f t="shared" ref="AR7:BE7" si="6">B10</f>
         <v>62.165450121654487</v>
       </c>
       <c r="AS7">
-        <f>C10</f>
+        <f t="shared" si="6"/>
         <v>48.943985307621674</v>
       </c>
       <c r="AT7">
-        <f>D10</f>
+        <f t="shared" si="6"/>
         <v>56.802800466744451</v>
       </c>
       <c r="AU7">
-        <f>E10</f>
+        <f t="shared" si="6"/>
         <v>79.488220958570267</v>
       </c>
       <c r="AV7">
-        <f>F10</f>
+        <f t="shared" si="6"/>
         <v>45.706106870229007</v>
       </c>
       <c r="AW7">
-        <f>G10</f>
+        <f t="shared" si="6"/>
         <v>32.342342342342349</v>
       </c>
       <c r="AX7">
-        <f>H10</f>
+        <f t="shared" si="6"/>
         <v>63.421531003837607</v>
       </c>
       <c r="AY7">
-        <f>I10</f>
+        <f t="shared" si="6"/>
         <v>36.978341257263601</v>
       </c>
       <c r="AZ7">
-        <f>J10</f>
+        <f t="shared" si="6"/>
         <v>45.143487858719652</v>
       </c>
       <c r="BA7">
-        <f>K10</f>
+        <f t="shared" si="6"/>
         <v>44.3826799297835</v>
       </c>
       <c r="BB7">
-        <f>L10</f>
+        <f t="shared" si="6"/>
         <v>53.97712157488693</v>
       </c>
       <c r="BC7">
-        <f>M10</f>
+        <f t="shared" si="6"/>
         <v>63.543132917755877</v>
       </c>
       <c r="BD7">
-        <f>N10</f>
+        <f t="shared" si="6"/>
         <v>59.876543209876537</v>
       </c>
       <c r="BE7">
-        <f>O10</f>
+        <f t="shared" si="6"/>
         <v>50.929070929070932</v>
       </c>
       <c r="BF7">
-        <f>B11</f>
+        <f t="shared" ref="BF7:BS7" si="7">B11</f>
         <v>64.065040650406502</v>
       </c>
       <c r="BG7">
-        <f>C11</f>
+        <f t="shared" si="7"/>
         <v>53.20778806255985</v>
       </c>
       <c r="BH7">
-        <f>D11</f>
+        <f t="shared" si="7"/>
         <v>55.101590106007073</v>
       </c>
       <c r="BI7">
-        <f>E11</f>
+        <f t="shared" si="7"/>
         <v>79.195104730524832</v>
       </c>
       <c r="BJ7">
-        <f>F11</f>
+        <f t="shared" si="7"/>
         <v>54.099848714069587</v>
       </c>
       <c r="BK7">
-        <f>G11</f>
+        <f t="shared" si="7"/>
         <v>38.285530132130198</v>
       </c>
       <c r="BL7">
-        <f>H11</f>
+        <f t="shared" si="7"/>
         <v>66.381694744782507</v>
       </c>
       <c r="BM7">
-        <f>I11</f>
+        <f t="shared" si="7"/>
         <v>41.232809430255401</v>
       </c>
       <c r="BN7">
-        <f>J11</f>
+        <f t="shared" si="7"/>
         <v>65.582303188028618</v>
       </c>
       <c r="BO7">
-        <f>K11</f>
+        <f t="shared" si="7"/>
         <v>52.277716794731063</v>
       </c>
       <c r="BP7">
-        <f>L11</f>
+        <f t="shared" si="7"/>
         <v>67.474589523064893</v>
       </c>
       <c r="BQ7">
-        <f>M11</f>
+        <f t="shared" si="7"/>
         <v>73.360923546068392</v>
       </c>
       <c r="BR7">
-        <f>N11</f>
+        <f t="shared" si="7"/>
         <v>57.822663471413897</v>
       </c>
       <c r="BS7">
-        <f>O11</f>
+        <f t="shared" si="7"/>
         <v>59.477267735558968</v>
       </c>
       <c r="BT7">
-        <f>B12</f>
+        <f t="shared" ref="BT7:CG7" si="8">B12</f>
         <v>65.515304689693906</v>
       </c>
       <c r="BU7">
-        <f>C12</f>
+        <f t="shared" si="8"/>
         <v>50.64303093500174</v>
       </c>
       <c r="BV7">
-        <f>D12</f>
+        <f t="shared" si="8"/>
         <v>63.246785984371058</v>
       </c>
       <c r="BW7">
-        <f>E12</f>
+        <f t="shared" si="8"/>
         <v>80.555555555555557</v>
       </c>
       <c r="BX7">
-        <f>F12</f>
+        <f t="shared" si="8"/>
         <v>48.538433778419353</v>
       </c>
       <c r="BY7">
-        <f>G12</f>
+        <f t="shared" si="8"/>
         <v>37.539732994278452</v>
       </c>
       <c r="BZ7">
-        <f>H12</f>
+        <f t="shared" si="8"/>
         <v>63.667734779393633</v>
       </c>
       <c r="CA7">
-        <f>I12</f>
+        <f t="shared" si="8"/>
         <v>47.398373983739837</v>
       </c>
       <c r="CB7">
-        <f>J12</f>
+        <f t="shared" si="8"/>
         <v>56.521739130434781</v>
       </c>
       <c r="CC7">
-        <f>K12</f>
+        <f t="shared" si="8"/>
         <v>45.811273746496418</v>
       </c>
       <c r="CD7">
-        <f>L12</f>
+        <f t="shared" si="8"/>
         <v>68.803648068669531</v>
       </c>
       <c r="CE7">
-        <f>M12</f>
+        <f t="shared" si="8"/>
         <v>63.992580570368652</v>
       </c>
       <c r="CF7">
-        <f>N12</f>
+        <f t="shared" si="8"/>
         <v>57.237083180652249</v>
       </c>
       <c r="CG7">
-        <f>O12</f>
+        <f t="shared" si="8"/>
         <v>58.615061785964087</v>
       </c>
       <c r="CH7">
-        <f>B13</f>
+        <f t="shared" ref="CH7:CU7" si="9">B13</f>
         <v>56.315086782376497</v>
       </c>
       <c r="CI7">
-        <f>C13</f>
+        <f t="shared" si="9"/>
         <v>58.432238476400777</v>
       </c>
       <c r="CJ7">
-        <f>D13</f>
+        <f t="shared" si="9"/>
         <v>62.282608695652172</v>
       </c>
       <c r="CK7">
-        <f>E13</f>
+        <f t="shared" si="9"/>
         <v>82.131722525331256</v>
       </c>
       <c r="CL7">
-        <f>F13</f>
+        <f t="shared" si="9"/>
         <v>57.044776119402982</v>
       </c>
       <c r="CM7">
-        <f>G13</f>
+        <f t="shared" si="9"/>
         <v>41.97218710493047</v>
       </c>
       <c r="CN7">
-        <f>H13</f>
+        <f t="shared" si="9"/>
         <v>66.875162887672658</v>
       </c>
       <c r="CO7">
-        <f>I13</f>
+        <f t="shared" si="9"/>
         <v>42.745098039215677</v>
       </c>
       <c r="CP7">
-        <f>J13</f>
+        <f t="shared" si="9"/>
         <v>56.793802145411199</v>
       </c>
       <c r="CQ7">
-        <f>K13</f>
+        <f t="shared" si="9"/>
         <v>47.84601283226398</v>
       </c>
       <c r="CR7">
-        <f>L13</f>
+        <f t="shared" si="9"/>
         <v>73.670588235294119</v>
       </c>
       <c r="CS7">
-        <f>M13</f>
+        <f t="shared" si="9"/>
         <v>70.055359838953194</v>
       </c>
       <c r="CT7">
-        <f>N13</f>
+        <f t="shared" si="9"/>
         <v>59.163010462369229</v>
       </c>
       <c r="CU7">
-        <f>O13</f>
+        <f t="shared" si="9"/>
         <v>66.019624573378849</v>
       </c>
       <c r="CV7">
-        <f>B14</f>
+        <f t="shared" ref="CV7:DI7" si="10">B14</f>
         <v>53.822233739310697</v>
       </c>
       <c r="CW7">
-        <f>C14</f>
+        <f t="shared" si="10"/>
         <v>54.328878558977337</v>
       </c>
       <c r="CX7">
-        <f>D14</f>
+        <f t="shared" si="10"/>
         <v>62.617230098146123</v>
       </c>
       <c r="CY7">
-        <f>E14</f>
+        <f t="shared" si="10"/>
         <v>77.634862737569591</v>
       </c>
       <c r="CZ7">
-        <f>F14</f>
+        <f t="shared" si="10"/>
         <v>53.676238561060273</v>
       </c>
       <c r="DA7">
-        <f>G14</f>
+        <f t="shared" si="10"/>
         <v>48.7390195522811</v>
       </c>
       <c r="DB7">
-        <f>H14</f>
+        <f t="shared" si="10"/>
         <v>66.555183946488299</v>
       </c>
       <c r="DC7">
-        <f>I14</f>
+        <f t="shared" si="10"/>
         <v>57.10991544965411</v>
       </c>
       <c r="DD7">
-        <f>J14</f>
+        <f t="shared" si="10"/>
         <v>63.596611095927848</v>
       </c>
       <c r="DE7">
-        <f>K14</f>
+        <f t="shared" si="10"/>
         <v>52.725280745001371</v>
       </c>
       <c r="DF7">
-        <f>L14</f>
+        <f t="shared" si="10"/>
         <v>63.97592861589542</v>
       </c>
       <c r="DG7">
-        <f>M14</f>
+        <f t="shared" si="10"/>
         <v>70.629809957593849</v>
       </c>
       <c r="DH7">
-        <f>N14</f>
+        <f t="shared" si="10"/>
         <v>69.052224371373299</v>
       </c>
       <c r="DI7">
-        <f>O14</f>
+        <f t="shared" si="10"/>
         <v>63.898477157360411</v>
       </c>
       <c r="DJ7">
-        <f>B15</f>
+        <f t="shared" ref="DJ7:DW7" si="11">B15</f>
         <v>53.790389395194687</v>
       </c>
       <c r="DK7">
-        <f>C15</f>
+        <f t="shared" si="11"/>
         <v>45.300025753283549</v>
       </c>
       <c r="DL7">
-        <f>D15</f>
+        <f t="shared" si="11"/>
         <v>58.432681608647272</v>
       </c>
       <c r="DM7">
-        <f>E15</f>
+        <f t="shared" si="11"/>
         <v>77.686590275627125</v>
       </c>
       <c r="DN7">
-        <f>F15</f>
+        <f t="shared" si="11"/>
         <v>52.401646843549862</v>
       </c>
       <c r="DO7">
-        <f>G15</f>
+        <f t="shared" si="11"/>
         <v>35.248547449967717</v>
       </c>
       <c r="DP7">
-        <f>H15</f>
+        <f t="shared" si="11"/>
         <v>56.937706190568598</v>
       </c>
       <c r="DQ7">
-        <f>I15</f>
+        <f t="shared" si="11"/>
         <v>55.204849498327761</v>
       </c>
       <c r="DR7">
-        <f>J15</f>
+        <f t="shared" si="11"/>
         <v>56.430834213305168</v>
       </c>
       <c r="DS7">
-        <f>K15</f>
+        <f t="shared" si="11"/>
         <v>43.260920345713608</v>
       </c>
       <c r="DT7">
-        <f>L15</f>
+        <f t="shared" si="11"/>
         <v>71.479447989315929</v>
       </c>
       <c r="DU7">
-        <f>M15</f>
+        <f t="shared" si="11"/>
         <v>62.033703010226127</v>
       </c>
       <c r="DV7">
-        <f>N15</f>
+        <f t="shared" si="11"/>
         <v>63.419248049184198</v>
       </c>
       <c r="DW7">
-        <f>O15</f>
+        <f t="shared" si="11"/>
         <v>58.152866242038208</v>
       </c>
       <c r="DX7">
-        <f>B16</f>
+        <f t="shared" ref="DX7:EK7" si="12">B16</f>
         <v>62.0663362561952</v>
       </c>
       <c r="DY7">
-        <f>C16</f>
+        <f t="shared" si="12"/>
         <v>43.642697188355307</v>
       </c>
       <c r="DZ7">
-        <f>D16</f>
+        <f t="shared" si="12"/>
         <v>53.9377445143732</v>
       </c>
       <c r="EA7">
-        <f>E16</f>
+        <f t="shared" si="12"/>
         <v>76.353135313531354</v>
       </c>
       <c r="EB7">
-        <f>F16</f>
+        <f t="shared" si="12"/>
         <v>54.522454142947502</v>
       </c>
       <c r="EC7">
-        <f>G16</f>
+        <f t="shared" si="12"/>
         <v>40.922259777885081</v>
       </c>
       <c r="ED7">
-        <f>H16</f>
+        <f t="shared" si="12"/>
         <v>64.101791898810419</v>
       </c>
       <c r="EE7">
-        <f>I16</f>
+        <f t="shared" si="12"/>
         <v>32.498057498057499</v>
       </c>
       <c r="EF7">
-        <f>J16</f>
+        <f t="shared" si="12"/>
         <v>54.501685122773239</v>
       </c>
       <c r="EG7">
-        <f>K16</f>
+        <f t="shared" si="12"/>
         <v>37.151852748849599</v>
       </c>
       <c r="EH7">
-        <f>L16</f>
+        <f t="shared" si="12"/>
         <v>60.287962497907252</v>
       </c>
       <c r="EI7">
-        <f>M16</f>
+        <f t="shared" si="12"/>
         <v>61.28601921024547</v>
       </c>
       <c r="EJ7">
-        <f>N16</f>
+        <f t="shared" si="12"/>
         <v>58.884934756820883</v>
       </c>
       <c r="EK7">
-        <f>O16</f>
+        <f t="shared" si="12"/>
         <v>55.686213832585487</v>
       </c>
     </row>
@@ -10063,227 +10066,227 @@
         <v>51.334951456310677</v>
       </c>
       <c r="P17">
-        <f t="shared" ref="P17:AC20" si="2">B18</f>
+        <f t="shared" ref="P17:AC17" si="13">B18</f>
         <v>94.326841659610494</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>85.010940919037211</v>
       </c>
       <c r="R17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>87.298091042584431</v>
       </c>
       <c r="S17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>94.836272040302276</v>
       </c>
       <c r="T17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>78.901734104046241</v>
       </c>
       <c r="U17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>68.06640625</v>
       </c>
       <c r="V17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>64.125122189638319</v>
       </c>
       <c r="W17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>72.592592592592595</v>
       </c>
       <c r="X17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>67.265625</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>77.414330218068542</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>82.121807465618858</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>75.445173383317709</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>85.049019607843135</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>64.575645756457561</v>
       </c>
       <c r="AD17">
-        <f>B19</f>
+        <f t="shared" ref="AD17:AQ17" si="14">B19</f>
         <v>97.277368122518439</v>
       </c>
       <c r="AE17">
-        <f>C19</f>
+        <f t="shared" si="14"/>
         <v>78.957915831663328</v>
       </c>
       <c r="AF17">
-        <f>D19</f>
+        <f t="shared" si="14"/>
         <v>85.177228786251348</v>
       </c>
       <c r="AG17">
-        <f>E19</f>
+        <f t="shared" si="14"/>
         <v>97.349918875067615</v>
       </c>
       <c r="AH17">
-        <f>F19</f>
+        <f t="shared" si="14"/>
         <v>79.983179142136251</v>
       </c>
       <c r="AI17">
-        <f>G19</f>
+        <f t="shared" si="14"/>
         <v>67.022149302707135</v>
       </c>
       <c r="AJ17">
-        <f>H19</f>
+        <f t="shared" si="14"/>
         <v>86.902286902286903</v>
       </c>
       <c r="AK17">
-        <f>I19</f>
+        <f t="shared" si="14"/>
         <v>72.212790039615172</v>
       </c>
       <c r="AL17">
-        <f>J19</f>
+        <f t="shared" si="14"/>
         <v>82.093023255813961</v>
       </c>
       <c r="AM17">
-        <f>K19</f>
+        <f t="shared" si="14"/>
         <v>75.896057347670251</v>
       </c>
       <c r="AN17">
-        <f>L19</f>
+        <f t="shared" si="14"/>
         <v>92.371134020618555</v>
       </c>
       <c r="AO17">
-        <f>M19</f>
+        <f t="shared" si="14"/>
         <v>89.097988319273199</v>
       </c>
       <c r="AP17">
-        <f>N19</f>
+        <f t="shared" si="14"/>
         <v>84.438775510204081</v>
       </c>
       <c r="AQ17">
-        <f>O19</f>
+        <f t="shared" si="14"/>
         <v>69.969969969969966</v>
       </c>
       <c r="AR17">
-        <f>B20</f>
+        <f t="shared" ref="AR17:BE17" si="15">B20</f>
         <v>95.404499760651035</v>
       </c>
       <c r="AS17">
-        <f>C20</f>
+        <f t="shared" si="15"/>
         <v>77.272727272727266</v>
       </c>
       <c r="AT17">
-        <f>D20</f>
+        <f t="shared" si="15"/>
         <v>82.932597556168702</v>
       </c>
       <c r="AU17">
-        <f>E20</f>
+        <f t="shared" si="15"/>
         <v>96.806387225548903</v>
       </c>
       <c r="AV17">
-        <f>F20</f>
+        <f t="shared" si="15"/>
         <v>92.470910335386719</v>
       </c>
       <c r="AW17">
-        <f>G20</f>
+        <f t="shared" si="15"/>
         <v>71.929824561403507</v>
       </c>
       <c r="AX17">
-        <f>H20</f>
+        <f t="shared" si="15"/>
         <v>88.595505617977537</v>
       </c>
       <c r="AY17">
-        <f>I20</f>
+        <f t="shared" si="15"/>
         <v>83.654276757725029</v>
       </c>
       <c r="AZ17">
-        <f>J20</f>
+        <f t="shared" si="15"/>
         <v>81.939978563772769</v>
       </c>
       <c r="BA17">
-        <f>K20</f>
+        <f t="shared" si="15"/>
         <v>79.261538461538464</v>
       </c>
       <c r="BB17">
-        <f>L20</f>
+        <f t="shared" si="15"/>
         <v>91.040723981900456</v>
       </c>
       <c r="BC17">
-        <f>M20</f>
+        <f t="shared" si="15"/>
         <v>83.114297092791716</v>
       </c>
       <c r="BD17">
-        <f>N20</f>
+        <f t="shared" si="15"/>
         <v>84.789823008849567</v>
       </c>
       <c r="BE17">
-        <f>O20</f>
+        <f t="shared" si="15"/>
         <v>81.63507109004739</v>
       </c>
       <c r="BF17">
-        <f>B21</f>
+        <f t="shared" ref="BF17:BS17" si="16">B21</f>
         <v>96.882951653944019</v>
       </c>
       <c r="BG17">
-        <f>C21</f>
+        <f t="shared" si="16"/>
         <v>90.167453842851003</v>
       </c>
       <c r="BH17">
-        <f>D21</f>
+        <f t="shared" si="16"/>
         <v>95.600318049297641</v>
       </c>
       <c r="BI17">
-        <f>E21</f>
+        <f t="shared" si="16"/>
         <v>98.254364089775564</v>
       </c>
       <c r="BJ17">
-        <f>F21</f>
+        <f t="shared" si="16"/>
         <v>93.569131832797424</v>
       </c>
       <c r="BK17">
-        <f>G21</f>
+        <f t="shared" si="16"/>
         <v>95.692307692307693</v>
       </c>
       <c r="BL17">
-        <f>H21</f>
+        <f t="shared" si="16"/>
         <v>97.844546048334422</v>
       </c>
       <c r="BM17">
-        <f>I21</f>
+        <f t="shared" si="16"/>
         <v>72.067183462532299</v>
       </c>
       <c r="BN17">
-        <f>J21</f>
+        <f t="shared" si="16"/>
         <v>83.730598669623063</v>
       </c>
       <c r="BO17">
-        <f>K21</f>
+        <f t="shared" si="16"/>
         <v>89.792060491493388</v>
       </c>
       <c r="BP17">
-        <f>L21</f>
+        <f t="shared" si="16"/>
         <v>94.660820221820998</v>
       </c>
       <c r="BQ17">
-        <f>M21</f>
+        <f t="shared" si="16"/>
         <v>90.939691444600285</v>
       </c>
       <c r="BR17">
-        <f>N21</f>
+        <f t="shared" si="16"/>
         <v>90.797330523357928</v>
       </c>
       <c r="BS17">
-        <f>O21</f>
+        <f t="shared" si="16"/>
         <v>91.397445529676929</v>
       </c>
     </row>
@@ -10522,507 +10525,507 @@
         <v>92.67900241351569</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:AC22" si="3">B23</f>
+        <f t="shared" ref="P22:AC22" si="17">B23</f>
         <v>93.784683684794672</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>91.459528362014026</v>
       </c>
       <c r="R22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>90.586080586080584</v>
       </c>
       <c r="S22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>97.435032062099225</v>
       </c>
       <c r="T22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>93.382352941176478</v>
       </c>
       <c r="U22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>90.313852813852819</v>
       </c>
       <c r="V22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>93.545183714001993</v>
       </c>
       <c r="W22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>83.873264506941965</v>
       </c>
       <c r="X22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>92.578925789257895</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>93.279724296381389</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>86.233867813844341</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>83.223218499292116</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>92.182254196642688</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>91.553042899900234</v>
       </c>
       <c r="AD22">
-        <f>B24</f>
+        <f t="shared" ref="AD22:AQ22" si="18">B24</f>
         <v>91.800804828973853</v>
       </c>
       <c r="AE22">
-        <f>C24</f>
+        <f t="shared" si="18"/>
         <v>83.368869936034116</v>
       </c>
       <c r="AF22">
-        <f>D24</f>
+        <f t="shared" si="18"/>
         <v>72.695035460992912</v>
       </c>
       <c r="AG22">
-        <f>E24</f>
+        <f t="shared" si="18"/>
         <v>97.408026755852845</v>
       </c>
       <c r="AH22">
-        <f>F24</f>
+        <f t="shared" si="18"/>
         <v>96.842709529276689</v>
       </c>
       <c r="AI22">
-        <f>G24</f>
+        <f t="shared" si="18"/>
         <v>85.597592433361996</v>
       </c>
       <c r="AJ22">
-        <f>H24</f>
+        <f t="shared" si="18"/>
         <v>80.495689655172413</v>
       </c>
       <c r="AK22">
-        <f>I24</f>
+        <f t="shared" si="18"/>
         <v>65.526932084309124</v>
       </c>
       <c r="AL22">
-        <f>J24</f>
+        <f t="shared" si="18"/>
         <v>85.687663063734618</v>
       </c>
       <c r="AM22">
-        <f>K24</f>
+        <f t="shared" si="18"/>
         <v>74.923813670004364</v>
       </c>
       <c r="AN22">
-        <f>L24</f>
+        <f t="shared" si="18"/>
         <v>72.111672111672107</v>
       </c>
       <c r="AO22">
-        <f>M24</f>
+        <f t="shared" si="18"/>
         <v>67.035029190992489</v>
       </c>
       <c r="AP22">
-        <f>N24</f>
+        <f t="shared" si="18"/>
         <v>94.874532835024027</v>
       </c>
       <c r="AQ22">
-        <f>O24</f>
+        <f t="shared" si="18"/>
         <v>88.445326060004959</v>
       </c>
       <c r="AR22">
-        <f>B25</f>
+        <f t="shared" ref="AR22:BE22" si="19">B25</f>
         <v>87.438180019782394</v>
       </c>
       <c r="AS22">
-        <f>C25</f>
+        <f t="shared" si="19"/>
         <v>94.135802469135797</v>
       </c>
       <c r="AT22">
-        <f>D25</f>
+        <f t="shared" si="19"/>
         <v>69.180214458664821</v>
       </c>
       <c r="AU22">
-        <f>E25</f>
+        <f t="shared" si="19"/>
         <v>98.528941477454424</v>
       </c>
       <c r="AV22">
-        <f>F25</f>
+        <f t="shared" si="19"/>
         <v>94.708029197080293</v>
       </c>
       <c r="AW22">
-        <f>G25</f>
+        <f t="shared" si="19"/>
         <v>78.406593406593402</v>
       </c>
       <c r="AX22">
-        <f>H25</f>
+        <f t="shared" si="19"/>
         <v>77.591036414565835</v>
       </c>
       <c r="AY22">
-        <f>I25</f>
+        <f t="shared" si="19"/>
         <v>58.753623188405797</v>
       </c>
       <c r="AZ22">
-        <f>J25</f>
+        <f t="shared" si="19"/>
         <v>88.58369098712447</v>
       </c>
       <c r="BA22">
-        <f>K25</f>
+        <f t="shared" si="19"/>
         <v>77.89962041332771</v>
       </c>
       <c r="BB22">
-        <f>L25</f>
+        <f t="shared" si="19"/>
         <v>86.777128005198179</v>
       </c>
       <c r="BC22">
-        <f>M25</f>
+        <f t="shared" si="19"/>
         <v>80.026455026455025</v>
       </c>
       <c r="BD22">
-        <f>N25</f>
+        <f t="shared" si="19"/>
         <v>91.380250954719045</v>
       </c>
       <c r="BE22">
-        <f>O25</f>
+        <f t="shared" si="19"/>
         <v>91.550893110292037</v>
       </c>
       <c r="BF22">
-        <f>B26</f>
+        <f t="shared" ref="BF22:BS22" si="20">B26</f>
         <v>95.49590536851683</v>
       </c>
       <c r="BG22">
-        <f>C26</f>
+        <f t="shared" si="20"/>
         <v>90.741373419883843</v>
       </c>
       <c r="BH22">
-        <f>D26</f>
+        <f t="shared" si="20"/>
         <v>81.744929146985285</v>
       </c>
       <c r="BI22">
-        <f>E26</f>
+        <f t="shared" si="20"/>
         <v>98.760010333247223</v>
       </c>
       <c r="BJ22">
-        <f>F26</f>
+        <f t="shared" si="20"/>
         <v>94.268635724331929</v>
       </c>
       <c r="BK22">
-        <f>G26</f>
+        <f t="shared" si="20"/>
         <v>95.193277310924373</v>
       </c>
       <c r="BL22">
-        <f>H26</f>
+        <f t="shared" si="20"/>
         <v>87.867370007535797</v>
       </c>
       <c r="BM22">
-        <f>I26</f>
+        <f t="shared" si="20"/>
         <v>61.606825453252753</v>
       </c>
       <c r="BN22">
-        <f>J26</f>
+        <f t="shared" si="20"/>
         <v>93.356401384083043</v>
       </c>
       <c r="BO22">
-        <f>K26</f>
+        <f t="shared" si="20"/>
         <v>90.276766205389663</v>
       </c>
       <c r="BP22">
-        <f>L26</f>
+        <f t="shared" si="20"/>
         <v>83.345095271700771</v>
       </c>
       <c r="BQ22">
-        <f>M26</f>
+        <f t="shared" si="20"/>
         <v>80.333866910587687</v>
       </c>
       <c r="BR22">
-        <f>N26</f>
+        <f t="shared" si="20"/>
         <v>89.769820971867006</v>
       </c>
       <c r="BS22">
-        <f>O26</f>
+        <f t="shared" si="20"/>
         <v>92.197236521267939</v>
       </c>
       <c r="BT22">
-        <f>B27</f>
+        <f t="shared" ref="BT22:CG22" si="21">B27</f>
         <v>83.272394881170015</v>
       </c>
       <c r="BU22">
-        <f>C27</f>
+        <f t="shared" si="21"/>
         <v>92.832618025751074</v>
       </c>
       <c r="BV22">
-        <f>D27</f>
+        <f t="shared" si="21"/>
         <v>85.324232081911262</v>
       </c>
       <c r="BW22">
-        <f>E27</f>
+        <f t="shared" si="21"/>
         <v>98.457742134484889</v>
       </c>
       <c r="BX22">
-        <f>F27</f>
+        <f t="shared" si="21"/>
         <v>94.379593601383476</v>
       </c>
       <c r="BY22">
-        <f>G27</f>
+        <f t="shared" si="21"/>
         <v>84.119010819165368</v>
       </c>
       <c r="BZ22">
-        <f>H27</f>
+        <f t="shared" si="21"/>
         <v>94.234856535600414</v>
       </c>
       <c r="CA22">
-        <f>I27</f>
+        <f t="shared" si="21"/>
         <v>66.268311488049349</v>
       </c>
       <c r="CB22">
-        <f>J27</f>
+        <f t="shared" si="21"/>
         <v>98.794788273615637</v>
       </c>
       <c r="CC22">
-        <f>K27</f>
+        <f t="shared" si="21"/>
         <v>83.785509096712417</v>
       </c>
       <c r="CD22">
-        <f>L27</f>
+        <f t="shared" si="21"/>
         <v>71.711667079514498</v>
       </c>
       <c r="CE22">
-        <f>M27</f>
+        <f t="shared" si="21"/>
         <v>77.069332896246507</v>
       </c>
       <c r="CF22">
-        <f>N27</f>
+        <f t="shared" si="21"/>
         <v>94.517444494789302</v>
       </c>
       <c r="CG22">
-        <f>O27</f>
+        <f t="shared" si="21"/>
         <v>95.90484793736826</v>
       </c>
       <c r="CH22">
-        <f>B28</f>
+        <f t="shared" ref="CH22:CU22" si="22">B28</f>
         <v>83.401003104848343</v>
       </c>
       <c r="CI22">
-        <f>C28</f>
+        <f t="shared" si="22"/>
         <v>92.371743217835075</v>
       </c>
       <c r="CJ22">
-        <f>D28</f>
+        <f t="shared" si="22"/>
         <v>71.681619507706458</v>
       </c>
       <c r="CK22">
-        <f>E28</f>
+        <f t="shared" si="22"/>
         <v>96.093000958772762</v>
       </c>
       <c r="CL22">
-        <f>F28</f>
+        <f t="shared" si="22"/>
         <v>98.580246913580254</v>
       </c>
       <c r="CM22">
-        <f>G28</f>
+        <f t="shared" si="22"/>
         <v>88.010269576379969</v>
       </c>
       <c r="CN22">
-        <f>H28</f>
+        <f t="shared" si="22"/>
         <v>95.023948908994143</v>
       </c>
       <c r="CO22">
-        <f>I28</f>
+        <f t="shared" si="22"/>
         <v>58.330678560050977</v>
       </c>
       <c r="CP22">
-        <f>J28</f>
+        <f t="shared" si="22"/>
         <v>88.971248876909257</v>
       </c>
       <c r="CQ22">
-        <f>K28</f>
+        <f t="shared" si="22"/>
         <v>93.815350389321466</v>
       </c>
       <c r="CR22">
-        <f>L28</f>
+        <f t="shared" si="22"/>
         <v>70.282626766417295</v>
       </c>
       <c r="CS22">
-        <f>M28</f>
+        <f t="shared" si="22"/>
         <v>74.973526297211436</v>
       </c>
       <c r="CT22">
-        <f>N28</f>
+        <f t="shared" si="22"/>
         <v>86.895938333827445</v>
       </c>
       <c r="CU22">
-        <f>O28</f>
+        <f t="shared" si="22"/>
         <v>68.342881391894764</v>
       </c>
       <c r="CV22">
-        <f>B29</f>
+        <f t="shared" ref="CV22:DI22" si="23">B29</f>
         <v>82.550578034682076</v>
       </c>
       <c r="CW22">
-        <f>C29</f>
+        <f t="shared" si="23"/>
         <v>90.559006211180133</v>
       </c>
       <c r="CX22">
-        <f>D29</f>
+        <f t="shared" si="23"/>
         <v>68.739373330094736</v>
       </c>
       <c r="CY22">
-        <f>E29</f>
+        <f t="shared" si="23"/>
         <v>98.736097067745192</v>
       </c>
       <c r="CZ22">
-        <f>F29</f>
+        <f t="shared" si="23"/>
         <v>96.91157347204161</v>
       </c>
       <c r="DA22">
-        <f>G29</f>
+        <f t="shared" si="23"/>
         <v>88.81987577639751</v>
       </c>
       <c r="DB22">
-        <f>H29</f>
+        <f t="shared" si="23"/>
         <v>92.990878540566484</v>
       </c>
       <c r="DC22">
-        <f>I29</f>
+        <f t="shared" si="23"/>
         <v>59.223766171538102</v>
       </c>
       <c r="DD22">
-        <f>J29</f>
+        <f t="shared" si="23"/>
         <v>88.501389941875146</v>
       </c>
       <c r="DE22">
-        <f>K29</f>
+        <f t="shared" si="23"/>
         <v>93.217706445767533</v>
       </c>
       <c r="DF22">
-        <f>L29</f>
+        <f t="shared" si="23"/>
         <v>80.782357574166454</v>
       </c>
       <c r="DG22">
-        <f>M29</f>
+        <f t="shared" si="23"/>
         <v>73.415892672858618</v>
       </c>
       <c r="DH22">
-        <f>N29</f>
+        <f t="shared" si="23"/>
         <v>80.205949656750576</v>
       </c>
       <c r="DI22">
-        <f>O29</f>
+        <f t="shared" si="23"/>
         <v>70.307243776631537</v>
       </c>
       <c r="DJ22">
-        <f>B30</f>
+        <f t="shared" ref="DJ22:DW22" si="24">B30</f>
         <v>86.14492753623189</v>
       </c>
       <c r="DK22">
-        <f>C30</f>
+        <f t="shared" si="24"/>
         <v>89.372506347479145</v>
       </c>
       <c r="DL22">
-        <f>D30</f>
+        <f t="shared" si="24"/>
         <v>90.135898610474882</v>
       </c>
       <c r="DM22">
-        <f>E30</f>
+        <f t="shared" si="24"/>
         <v>97.098075729360644</v>
       </c>
       <c r="DN22">
-        <f>F30</f>
+        <f t="shared" si="24"/>
         <v>99.797160243407717</v>
       </c>
       <c r="DO22">
-        <f>G30</f>
+        <f t="shared" si="24"/>
         <v>78.244897959183675</v>
       </c>
       <c r="DP22">
-        <f>H30</f>
+        <f t="shared" si="24"/>
         <v>92.115317818687046</v>
       </c>
       <c r="DQ22">
-        <f>I30</f>
+        <f t="shared" si="24"/>
         <v>49.410708272533391</v>
       </c>
       <c r="DR22">
-        <f>J30</f>
+        <f t="shared" si="24"/>
         <v>90.766550522648089</v>
       </c>
       <c r="DS22">
-        <f>K30</f>
+        <f t="shared" si="24"/>
         <v>92.163900104680721</v>
       </c>
       <c r="DT22">
-        <f>L30</f>
+        <f t="shared" si="24"/>
         <v>66.405718175629687</v>
       </c>
       <c r="DU22">
-        <f>M30</f>
+        <f t="shared" si="24"/>
         <v>64.837965772545218</v>
       </c>
       <c r="DV22">
-        <f>N30</f>
+        <f t="shared" si="24"/>
         <v>85.211995863495346</v>
       </c>
       <c r="DW22">
-        <f>O30</f>
+        <f t="shared" si="24"/>
         <v>76.307785888077859</v>
       </c>
       <c r="DX22">
-        <f>B31</f>
+        <f t="shared" ref="DX22:EK22" si="25">B31</f>
         <v>83.984819734345351</v>
       </c>
       <c r="DY22">
-        <f>C31</f>
+        <f t="shared" si="25"/>
         <v>90.270076909318547</v>
       </c>
       <c r="DZ22">
-        <f>D31</f>
+        <f t="shared" si="25"/>
         <v>86.398188581594695</v>
       </c>
       <c r="EA22">
-        <f>E31</f>
+        <f t="shared" si="25"/>
         <v>98.545038417524935</v>
       </c>
       <c r="EB22">
-        <f>F31</f>
+        <f t="shared" si="25"/>
         <v>99.501143213469135</v>
       </c>
       <c r="EC22">
-        <f>G31</f>
+        <f t="shared" si="25"/>
         <v>92.725584274880049</v>
       </c>
       <c r="ED22">
-        <f>H31</f>
+        <f t="shared" si="25"/>
         <v>96.52138326171476</v>
       </c>
       <c r="EE22">
-        <f>I31</f>
+        <f t="shared" si="25"/>
         <v>42.722783917234892</v>
       </c>
       <c r="EF22">
-        <f>J31</f>
+        <f t="shared" si="25"/>
         <v>90.813380879606044</v>
       </c>
       <c r="EG22">
-        <f>K31</f>
+        <f t="shared" si="25"/>
         <v>81.337868480725632</v>
       </c>
       <c r="EH22">
-        <f>L31</f>
+        <f t="shared" si="25"/>
         <v>57.316609654123909</v>
       </c>
       <c r="EI22">
-        <f>M31</f>
+        <f t="shared" si="25"/>
         <v>68.851021175291322</v>
       </c>
       <c r="EJ22">
-        <f>N31</f>
+        <f t="shared" si="25"/>
         <v>86.607480166225912</v>
       </c>
       <c r="EK22">
-        <f>O31</f>
+        <f t="shared" si="25"/>
         <v>76.385224274406326</v>
       </c>
     </row>
@@ -11816,18 +11819,18 @@
       <c r="U38" t="s">
         <v>53</v>
       </c>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB38" s="15" t="s">
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB38" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AD38" s="15"/>
-      <c r="AE38" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF38" s="15" t="s">
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF38" s="14" t="s">
         <v>91</v>
       </c>
     </row>
@@ -11896,22 +11899,22 @@
         <f>CORREL(B7:O16,B76:O85)</f>
         <v>-0.21872841518056693</v>
       </c>
-      <c r="Z39" s="13" t="s">
+      <c r="Z39" t="s">
         <v>92</v>
       </c>
-      <c r="AA39" s="13">
+      <c r="AA39">
         <v>43.855063031049163</v>
       </c>
-      <c r="AB39" s="13">
+      <c r="AB39">
         <v>56.513154645931536</v>
       </c>
-      <c r="AD39" s="13" t="s">
+      <c r="AD39" t="s">
         <v>92</v>
       </c>
-      <c r="AE39" s="13">
+      <c r="AE39">
         <v>82.220701521667209</v>
       </c>
-      <c r="AF39" s="13">
+      <c r="AF39">
         <v>85.186161092360436</v>
       </c>
     </row>
@@ -11980,22 +11983,22 @@
         <f>CORREL(B22:O31,B91:O100)</f>
         <v>0.34925969500190068</v>
       </c>
-      <c r="Z40" s="13" t="s">
+      <c r="Z40" t="s">
         <v>93</v>
       </c>
-      <c r="AA40" s="13">
+      <c r="AA40">
         <v>45.68436851742571</v>
       </c>
-      <c r="AB40" s="13">
+      <c r="AB40">
         <v>125.95736461535235</v>
       </c>
-      <c r="AD40" s="13" t="s">
+      <c r="AD40" t="s">
         <v>93</v>
       </c>
-      <c r="AE40" s="13">
+      <c r="AE40">
         <v>128.14867075153566</v>
       </c>
-      <c r="AF40" s="13">
+      <c r="AF40">
         <v>133.99576044410614</v>
       </c>
     </row>
@@ -12045,22 +12048,22 @@
       <c r="O41" s="3">
         <v>70</v>
       </c>
-      <c r="Z41" s="13" t="s">
+      <c r="Z41" t="s">
         <v>94</v>
       </c>
-      <c r="AA41" s="13">
-        <v>70</v>
-      </c>
-      <c r="AB41" s="13">
+      <c r="AA41">
+        <v>70</v>
+      </c>
+      <c r="AB41">
         <v>140</v>
       </c>
-      <c r="AD41" s="13" t="s">
+      <c r="AD41" t="s">
         <v>94</v>
       </c>
-      <c r="AE41" s="13">
-        <v>70</v>
-      </c>
-      <c r="AF41" s="13">
+      <c r="AE41">
+        <v>70</v>
+      </c>
+      <c r="AF41">
         <v>140</v>
       </c>
     </row>
@@ -12122,20 +12125,18 @@
       <c r="W42" t="s">
         <v>83</v>
       </c>
-      <c r="Z42" s="13" t="s">
+      <c r="Z42" t="s">
         <v>95</v>
       </c>
-      <c r="AA42" s="13">
+      <c r="AA42">
         <v>99.328341871328604</v>
       </c>
-      <c r="AB42" s="13"/>
-      <c r="AD42" s="13" t="s">
+      <c r="AD42" t="s">
         <v>95</v>
       </c>
-      <c r="AE42" s="13">
+      <c r="AE42">
         <v>132.05610088262844</v>
       </c>
-      <c r="AF42" s="13"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
@@ -12207,20 +12208,18 @@
       <c r="X43" t="s">
         <v>71</v>
       </c>
-      <c r="Z43" s="13" t="s">
+      <c r="Z43" t="s">
         <v>96</v>
       </c>
-      <c r="AA43" s="13">
+      <c r="AA43">
         <v>0</v>
       </c>
-      <c r="AB43" s="13"/>
-      <c r="AD43" s="13" t="s">
+      <c r="AD43" t="s">
         <v>96</v>
       </c>
-      <c r="AE43" s="13">
+      <c r="AE43">
         <v>0</v>
       </c>
-      <c r="AF43" s="13"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
@@ -12300,20 +12299,18 @@
         <f>TDIST(ABS(W44),138,2)</f>
         <v>1.6129081532651016E-22</v>
       </c>
-      <c r="Z44" s="13" t="s">
+      <c r="Z44" t="s">
         <v>97</v>
       </c>
-      <c r="AA44" s="13">
+      <c r="AA44">
         <v>208</v>
       </c>
-      <c r="AB44" s="13"/>
-      <c r="AD44" s="13" t="s">
+      <c r="AD44" t="s">
         <v>97</v>
       </c>
-      <c r="AE44" s="13">
+      <c r="AE44">
         <v>208</v>
       </c>
-      <c r="AF44" s="13"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -12373,20 +12370,18 @@
       <c r="W45" t="s">
         <v>87</v>
       </c>
-      <c r="Z45" s="13" t="s">
+      <c r="Z45" t="s">
         <v>98</v>
       </c>
-      <c r="AA45" s="13">
+      <c r="AA45">
         <v>-8.6763094312426094</v>
       </c>
-      <c r="AB45" s="13"/>
-      <c r="AD45" s="13" t="s">
+      <c r="AD45" t="s">
         <v>98</v>
       </c>
-      <c r="AE45" s="13">
+      <c r="AE45">
         <v>-1.7628532593632755</v>
       </c>
-      <c r="AF45" s="13"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
@@ -12458,20 +12453,18 @@
       <c r="X46" t="s">
         <v>71</v>
       </c>
-      <c r="Z46" s="13" t="s">
+      <c r="Z46" t="s">
         <v>99</v>
       </c>
-      <c r="AA46" s="13">
+      <c r="AA46">
         <v>5.9154045059029955E-16</v>
       </c>
-      <c r="AB46" s="13"/>
-      <c r="AD46" s="13" t="s">
+      <c r="AD46" t="s">
         <v>99</v>
       </c>
-      <c r="AE46" s="13">
+      <c r="AE46">
         <v>3.9696887831949475E-2</v>
       </c>
-      <c r="AF46" s="13"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
@@ -12551,20 +12544,18 @@
         <f>TDIST(ABS(W47),138,2)</f>
         <v>2.3429365895294236E-5</v>
       </c>
-      <c r="Z47" s="13" t="s">
+      <c r="Z47" t="s">
         <v>100</v>
       </c>
-      <c r="AA47" s="13">
+      <c r="AA47">
         <v>1.6522123760661407</v>
       </c>
-      <c r="AB47" s="13"/>
-      <c r="AD47" s="13" t="s">
+      <c r="AD47" t="s">
         <v>100</v>
       </c>
-      <c r="AE47" s="13">
+      <c r="AE47">
         <v>1.6522123760661407</v>
       </c>
-      <c r="AF47" s="13"/>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
@@ -12612,20 +12603,18 @@
       <c r="O48" s="3">
         <v>70</v>
       </c>
-      <c r="Z48" s="13" t="s">
+      <c r="Z48" t="s">
         <v>101</v>
       </c>
-      <c r="AA48" s="13">
+      <c r="AA48">
         <v>1.1830809011805991E-15</v>
       </c>
-      <c r="AB48" s="13"/>
-      <c r="AD48" s="13" t="s">
+      <c r="AD48" t="s">
         <v>101</v>
       </c>
-      <c r="AE48" s="13">
+      <c r="AE48">
         <v>7.9393775663898949E-2</v>
       </c>
-      <c r="AF48" s="13"/>
     </row>
     <row r="49" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -12673,20 +12662,20 @@
       <c r="O49" s="3">
         <v>80</v>
       </c>
-      <c r="Z49" s="14" t="s">
+      <c r="Z49" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="AA49" s="14">
+      <c r="AA49" s="13">
         <v>1.9714346585202402</v>
       </c>
-      <c r="AB49" s="14"/>
-      <c r="AD49" s="14" t="s">
+      <c r="AB49" s="13"/>
+      <c r="AD49" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="AE49" s="14">
+      <c r="AE49" s="13">
         <v>1.9714346585202402</v>
       </c>
-      <c r="AF49" s="14"/>
+      <c r="AF49" s="13"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
@@ -13398,59 +13387,59 @@
         <v>45</v>
       </c>
       <c r="B65">
-        <f t="shared" ref="B65:O65" si="4">CORREL(B2:B16,B35:B49)</f>
+        <f t="shared" ref="B65:O65" si="26">CORREL(B2:B16,B35:B49)</f>
         <v>-0.51447339939618453</v>
       </c>
       <c r="C65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.6705376295440123</v>
       </c>
       <c r="D65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-6.0329330662178333E-2</v>
       </c>
       <c r="E65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.80344559770836887</v>
       </c>
       <c r="F65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.54713472699558952</v>
       </c>
       <c r="G65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-6.3550302466523073E-2</v>
       </c>
       <c r="H65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.84002762246161256</v>
       </c>
       <c r="I65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>2.6435807954159545E-2</v>
       </c>
       <c r="J65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-7.9270338427385734E-2</v>
       </c>
       <c r="K65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.35027410855765223</v>
       </c>
       <c r="L65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.54927217996526567</v>
       </c>
       <c r="M65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.7216839279655749</v>
       </c>
       <c r="N65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.69899375416074305</v>
       </c>
       <c r="O65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.74673092488453308</v>
       </c>
     </row>
@@ -13459,59 +13448,59 @@
         <v>46</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:O66" si="5">CORREL(B17:B31,B50:B64)</f>
+        <f t="shared" ref="B66:O66" si="27">CORREL(B17:B31,B50:B64)</f>
         <v>0.32159951316728624</v>
       </c>
       <c r="C66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>-0.57319137124296271</v>
       </c>
       <c r="D66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>-0.30879533545974547</v>
       </c>
       <c r="E66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>-0.29708568795485762</v>
       </c>
       <c r="F66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>-0.91928386164814913</v>
       </c>
       <c r="G66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>-0.51623322591773102</v>
       </c>
       <c r="H66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>-0.56253879259221484</v>
       </c>
       <c r="I66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>0.68593705474192579</v>
       </c>
       <c r="J66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>9.8713743345760885E-2</v>
       </c>
       <c r="K66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>-0.57440788384402908</v>
       </c>
       <c r="L66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>0.49502298186997651</v>
       </c>
       <c r="M66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>0.42465914406298544</v>
       </c>
       <c r="N66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>-0.11856413774032877</v>
       </c>
       <c r="O66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>-0.21768288074442119</v>
       </c>
     </row>
@@ -14982,59 +14971,59 @@
         <v>45</v>
       </c>
       <c r="B101">
-        <f t="shared" ref="B101:O101" si="6">CORREL(B2:B16,B71:B85)</f>
+        <f t="shared" ref="B101:O101" si="28">CORREL(B2:B16,B71:B85)</f>
         <v>-0.23108911800985496</v>
       </c>
       <c r="C101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>-0.7485528692380693</v>
       </c>
       <c r="D101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>2.1056044575743213E-2</v>
       </c>
       <c r="E101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>-0.86579035193252674</v>
       </c>
       <c r="F101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>-0.63807346199718762</v>
       </c>
       <c r="G101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>-0.30619129064062001</v>
       </c>
       <c r="H101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>-0.88366063433536346</v>
       </c>
       <c r="I101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>-0.14579302893573093</v>
       </c>
       <c r="J101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>-1.9667145656577477E-2</v>
       </c>
       <c r="K101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>-0.44621314137602058</v>
       </c>
       <c r="L101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>-0.48713255239140774</v>
       </c>
       <c r="M101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>-0.8289643474454591</v>
       </c>
       <c r="N101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>-0.68476706116382691</v>
       </c>
       <c r="O101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>-0.74288417076299729</v>
       </c>
     </row>
@@ -15043,59 +15032,59 @@
         <v>46</v>
       </c>
       <c r="B102">
-        <f t="shared" ref="B102:O102" si="7">CORREL(B50:B64,B86:B100)</f>
+        <f t="shared" ref="B102:O102" si="29">CORREL(B50:B64,B86:B100)</f>
         <v>0.49076285018167559</v>
       </c>
       <c r="C102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>0.93039497166541207</v>
       </c>
       <c r="D102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>0.21283800174212827</v>
       </c>
       <c r="E102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>0.60779881578965012</v>
       </c>
       <c r="F102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>0.85403809305722755</v>
       </c>
       <c r="G102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>0.81314037270029305</v>
       </c>
       <c r="H102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>0.8835086722015526</v>
       </c>
       <c r="I102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>0.70528727206928143</v>
       </c>
       <c r="J102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>0.22876147129340274</v>
       </c>
       <c r="K102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>0.66719860802097231</v>
       </c>
       <c r="L102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>0.83676119973999574</v>
       </c>
       <c r="M102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>0.70241057693068665</v>
       </c>
       <c r="N102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>0.81954603988674635</v>
       </c>
       <c r="O102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>0.9173480683188231</v>
       </c>
     </row>

--- a/kaiseki/around_100.xlsx
+++ b/kaiseki/around_100.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/kaiseki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{42A58D2E-D5CA-48C8-8BA7-9F77B007CBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A90845D-3CB3-4CBA-9298-783201F50777}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{42A58D2E-D5CA-48C8-8BA7-9F77B007CBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB42F308-6D44-4704-9140-6BC0C9E65813}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6495" yWindow="135" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="103">
   <si>
     <t>imahashi</t>
   </si>
@@ -858,8 +858,44 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$21:$AB$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>13.527715472195322</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.1200003315417</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$21:$AB$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>13.527715472195322</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.1200003315417</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -944,8 +980,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$22:$AB$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5.7516105492568412</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>13.529853938014831</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.3670759544661095</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>15.307283594753502</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$22:$AB$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5.7516105492568412</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>13.529853938014831</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.3670759544661095</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>15.307283594753502</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1033,8 +1111,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$23:$AB$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>6.6167353014175374</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10.619122608100058</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.6945107405489113</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>13.15545255512618</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$23:$AB$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>6.6167353014175374</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10.619122608100058</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.6945107405489113</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>13.15545255512618</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1122,8 +1242,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$24:$AB$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>6.8492630507206487</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14.516490824628224</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.0126516264637377</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>12.393204105743978</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$24:$AB$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>6.8492630507206487</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14.516490824628224</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.0126516264637377</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>12.393204105743978</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1253,6 +1415,7 @@
         <c:axId val="598850639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1305,7 +1468,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="6.1111111111111109E-2"/>
+              <c:x val="6.9344289714540833E-2"/>
               <c:y val="0"/>
             </c:manualLayout>
           </c:layout>
@@ -1429,12 +1592,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1504,8 +1662,44 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$30:$AB$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="1">
+                    <c:v>29.714208757386555</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>42.099565916880564</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$30:$AB$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="1">
+                    <c:v>29.714208757386555</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>42.099565916880564</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1590,8 +1784,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$31:$AB$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>4.4334688919420726</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>19.68367645662353</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>38.005275170786469</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>23.193263722652503</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$31:$AB$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>4.4334688919420726</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>19.68367645662353</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>38.005275170786469</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>23.193263722652503</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1679,8 +1915,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$32:$AB$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>30.523946075743162</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>19.381884000352752</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>26.522219845548538</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>17.455998421316039</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$32:$AB$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>30.523946075743162</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>19.381884000352752</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>26.522219845548538</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>17.455998421316039</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1768,8 +2046,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$33:$AB$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>20.07689667533624</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.5924957163934259</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>20.641826641562279</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>15.005482414059852</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$33:$AB$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>20.07689667533624</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.5924957163934259</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>20.641826641562279</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>15.005482414059852</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1857,8 +2177,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$34:$AB$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>16.151490618090353</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.2417248503899359</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16.493028407119795</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>18.592863469340731</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$34:$AB$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>16.151490618090353</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.2417248503899359</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16.493028407119795</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>18.592863469340731</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1988,6 +2350,7 @@
         <c:axId val="733886655"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2046,7 +2409,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="6.6666666666666666E-2"/>
+              <c:x val="6.9432454586871847E-2"/>
               <c:y val="0"/>
             </c:manualLayout>
           </c:layout>
@@ -2170,12 +2533,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3288,16 +3646,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>460375</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>329406</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>124619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123031</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>3119</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3324,16 +3682,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>535780</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>293687</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>140437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3650,10 +4008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:AB102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView tabSelected="1" topLeftCell="P7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20:AB34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4407,7 +4765,7 @@
         <v>55.686213832585487</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -4454,7 +4812,7 @@
         <v>51.334951456310677</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -4507,7 +4865,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -4566,7 +4924,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -4618,8 +4976,11 @@
       <c r="R20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="X20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -4683,8 +5044,23 @@
         <f>AVERAGE(B7,K7)</f>
         <v>53.323162765657656</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y21" s="12">
+        <f>_xlfn.STDEV.P($D$6)</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="12">
+        <f>_xlfn.STDEV.P($B$7:$B$10,$D$7,$B$13,$E$9,$E$13,$K$8,$K$9,$K$16,$M$7)</f>
+        <v>13.527715472195322</v>
+      </c>
+      <c r="AB21" s="12">
+        <f>_xlfn.STDEV.P($B$7,$K$7)</f>
+        <v>5.1200003315417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -4752,8 +5128,27 @@
         <f>AVERAGE(B8:B9,B15:B16,E7:F9,F11,E13,E15:F16,H7,H9:H10,H14:H15,K8:K16,L15:L16,M13:M16,M7,M11,)</f>
         <v>58.556488591233375</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X22" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y22" s="12">
+        <f>_xlfn.STDEV.P($B$4:$B$6,$D$4:$D$5,$I$6)</f>
+        <v>5.7516105492568412</v>
+      </c>
+      <c r="Z22" s="12">
+        <f>_xlfn.STDEV.P($B$11:$B$12,$B$15:$B$16,$D$9,$D$11,$D$13,$D$15,$E$8,$E$10:$E$11,$E$14:$E$15,$F$8:$F$10,$F$16,$H$7:$H$11,$H$13,$H$15:$H$16,$K$7,$K$10:$K$15,$L$16,$M$8,$M$10,$M$12,$M$14:$M$16,)</f>
+        <v>13.529853938014831</v>
+      </c>
+      <c r="AA22" s="12">
+        <f>_xlfn.STDEV.P($B$3,$D$3)</f>
+        <v>3.3670759544661095</v>
+      </c>
+      <c r="AB22" s="12">
+        <f>_xlfn.STDEV.P($B$8:$B$9,$B$15:$B$16,$E$7:$F$9,$F$11,$E$13,$E$15:$F$16,$H$7,$H$9:$H$10,$H$14:$H$15,$K$8:$K$16,$L$15:$L$16,$M$13:$M$16,$M$7,$M$11,)</f>
+        <v>15.307283594753502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -4821,8 +5216,27 @@
         <f>AVERAGE(B10:B14,C7:C16,D12,D15,E10:E12,E14,F10,F12:F14,G15,H8,H11:H13,H16,I7:I16,J8,L13:L14,M8:M10,N10,N12,N14,O7:O16,)</f>
         <v>55.497858096974603</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X23" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y23" s="12">
+        <f>_xlfn.STDEV.P($B$2:$B$3,$D$3,$C$5:$C$6,$E$6,$I$4:$I$5,$K$5:$K$6,$L$6)</f>
+        <v>6.6167353014175374</v>
+      </c>
+      <c r="Z23" s="12">
+        <f>_xlfn.STDEV.P($C$7:$C$16,$B$14,$D$8,$D$10,$D$12,$D$14,$D$16,$E$16,$E$12,$E$7,$F$7,$F$11:$F$15,$G$15,$H$12,$H$14,$I$7:$I$16,$L$9,$L$11:$L$15,$M$9,$M$11,$M$13,$N$7:$N$13,$O$7:$O$16,$N$15:$N$16)</f>
+        <v>10.619122608100058</v>
+      </c>
+      <c r="AA23" s="12">
+        <f>_xlfn.STDEV.P($B$4:$B$6,$C$5,$D$6,$F$4,$F$6,$I$3:$I$6,$K$5:$K$6,$M$5,$N$6)</f>
+        <v>5.6945107405489113</v>
+      </c>
+      <c r="AB23" s="12">
+        <f>_xlfn.STDEV.P($B$10:$B$14,$C$7:$C$16,$D$12,$D$15,$E$10:$E$12,$E$14,$F$10,$F$12:$F$14,$G$15,$H$8,$H$11:$H$13,$H$16,$I$7:$I$16,$J$8,$L$13:$L$14,$M$8:$M$10,$N$10,$N$12,$N$14,$O$7:$O$16,)</f>
+        <v>13.15545255512618</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -4890,8 +5304,27 @@
         <f>AVERAGE(D7:D11,D13:D14,D16,G7:G14,G16,J7,J9:J16,L7:L12,M12,N7:N9,N11,N13,N15:N16,)</f>
         <v>52.100559168915801</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y24" s="12">
+        <f>_xlfn.STDEV.P($C$2:$C$4,$D$2,$E$2:$E$5,$F$2:$F$6,$G$2:$G$6,$H$2:$H$6,$I$2:$I$3,$J$2:$J$6,$K$2:$K$4,$L$2:$L$5,$M$2:$M$6,$N$2:$N$6,$O$2:$O$6)</f>
+        <v>6.8492630507206487</v>
+      </c>
+      <c r="Z24" s="12">
+        <f>_xlfn.STDEV.P($G$7:$G$14,$J$7:$J$16,$L$7:$L$8,$L$10,$N$14,)</f>
+        <v>14.516490824628224</v>
+      </c>
+      <c r="AA24" s="12">
+        <f>_xlfn.STDEV.P($B$2:$O$2,$C$3:$C$4,$C$6,$D$4,$E$3:$E$6,$D$5,$F$3,$F$5,$G$3:$H$6,$J$3:$J$6,$K$3:$K$4,$L$3:$L$6,$M$3:$O$4,$N$5:$O$5,$O$6,$M$6,)</f>
+        <v>9.0126516264637377</v>
+      </c>
+      <c r="AB24" s="12">
+        <f>_xlfn.STDEV.P($D$7:$D$11,$D$13:$D$14,$D$16,$G$7:$G$14,$G$16,$J$7,$J$9:$J$16,$L$7:$L$12,$M$12,$N$7:$N$9,$N$11,$N$13,$N$15:$N$16,)</f>
+        <v>12.393204105743978</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -4938,7 +5371,7 @@
         <v>91.550893110292037</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -4985,7 +5418,7 @@
         <v>92.197236521267939</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -5032,7 +5465,7 @@
         <v>95.90484793736826</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -5082,7 +5515,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -5141,7 +5574,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -5205,8 +5638,23 @@
         <f>AVERAGE(B30,K30,)</f>
         <v>59.436275880304208</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X30" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z30" s="12">
+        <f>_xlfn.STDEV.P($B$30:$B$31,$I$30,$K$31,$M$22:$M$23,)</f>
+        <v>29.714208757386555</v>
+      </c>
+      <c r="AA30" s="12">
+        <f>_xlfn.STDEV.P($I$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="12">
+        <f>_xlfn.STDEV.P($B$30,$K$30,)</f>
+        <v>42.099565916880564</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -5274,8 +5722,27 @@
         <f>AVERAGE(B28,B31,C30:E30,C31,H31:I31,I30,K29,K31,M24:M27,N30:O30,)</f>
         <v>75.747627588314344</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X31" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y31" s="12">
+        <f>_xlfn.STDEV.P($B$17,$B$21,$D$21)</f>
+        <v>4.4334688919420726</v>
+      </c>
+      <c r="Z31" s="12">
+        <f>_xlfn.STDEV.P($B$26,$B$28:$B$29,$D$22:$D$24,$D$26,$D$28,$C$30:$D$31,$E$31,$I$26,$I$28,$I$31,$K$30,$M$30:$M$31,$M$24,$O$31,$M$25,$M$28,$M$26:$M$27,)</f>
+        <v>19.68367645662353</v>
+      </c>
+      <c r="AA31" s="12">
+        <f>_xlfn.STDEV.P($B$20,$D$21:$E$21,$K$21,)</f>
+        <v>38.005275170786469</v>
+      </c>
+      <c r="AB31" s="12">
+        <f>_xlfn.STDEV.P($B$28,$B$31,$C$30:$E$30,$C$31,$H$31:$I$31,$I$30,$K$29,$K$31,$M$24:$M$27,$N$30:$O$30,)</f>
+        <v>23.193263722652503</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.15">
       <c r="Q32" t="s">
         <v>56</v>
       </c>
@@ -5298,8 +5765,27 @@
         <f>AVERAGE(B24:B25,B27,B29,C28:C29,D24:D26,D31:F31,F30,F26,H27,H29:H30,I25:I29,K22:K23,K27:K28,L24,L26:L28,L30:L31,M28:M31,N22,N25:N26,N28,N31:O31,)</f>
         <v>79.106068851471491</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X32" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y32" s="12">
+        <f>_xlfn.STDEV.P($B$19:$B$20,$D$20,$D$18,$E$21,$I$21,$K$21,)</f>
+        <v>30.523946075743162</v>
+      </c>
+      <c r="Z32" s="12">
+        <f>_xlfn.STDEV.P($B$22:$B$25,$C$22,$C$28:$C$29,$D$25,$D$27,$D$29,$H$22:$I$22,$I$24,$I$27,$N$28,$K$28:$L$28,$K$29,$M$29,$H$28,$I$29,$H$30:$H$31,$K$22:$K$23,$L$30:$L$31,$N$30:$N$31,$O$30,)</f>
+        <v>19.381884000352752</v>
+      </c>
+      <c r="AA32" s="12">
+        <f>_xlfn.STDEV.P($B$18:$B$19,$B$21,$D$17,$E$20,$F$21,$I$19:$I$20,$K$19:$K$20,)</f>
+        <v>26.522219845548538</v>
+      </c>
+      <c r="AB32" s="12">
+        <f>_xlfn.STDEV.P($B$24:$B$25,$B$27,$B$29,$C$28:$C$29,$D$24:$D$26,$D$31:$F$31,$F$30,$F$26,$H$27,$H$29:$H$30,$I$25:$I$29,$K$22:$K$23,$K$27:$K$28,$L$24,$L$26:$L$28,$L$30:$L$31,$M$28:$M$31,$N$22,$N$25:$N$26,$N$28,$N$31:$O$31,)</f>
+        <v>17.455998421316039</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -5325,8 +5811,27 @@
         <f>AVERAGE(B22:B23,B26,C22:C27,D22,D27,D29,F22:F25,F27:F29,G22,G26:H26,G28:G31,H28,H22:H23,I22:I24,J31,K24:K26,L25,L29,L22:M23,N23:N24,O22:O25,N27:O27,O28:O29,N29,)</f>
         <v>85.667452413465469</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X33" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y33" s="12">
+        <f>_xlfn.STDEV.P($D$17,$B$18,$C$21,$D$19,$E$19:$E$20,$F$20:$F$21,$I$20,$N$17:$N$21,$L$20:$M$21,$O$21,)</f>
+        <v>20.07689667533624</v>
+      </c>
+      <c r="Z33" s="12">
+        <f>_xlfn.STDEV.P($B$27,$C$23:$C$27,$E$22,$E$26,$E$28,$E$30,$F$22:$F$30,$G$22:$G$24,$F$31,$G$26,$G$28,$G$30:$G$31,$H$23:$H$24,$H$27,$H$29,$I$23,$I$25,$K$24:$K$27,$L$22:$L$27,$L$29,$N$22:$N$27,$O$22:$O$29,$N$29)</f>
+        <v>8.5924957163934259</v>
+      </c>
+      <c r="AA33" s="12">
+        <f>_xlfn.STDEV.P($C$21,$D$19:$D$20,$F$19:$F$20,$G$21:$H$21,$I$17:$J$17,$N$17,$L$19:$N$21,$O$20:$O$21,)</f>
+        <v>20.641826641562279</v>
+      </c>
+      <c r="AB33" s="12">
+        <f>_xlfn.STDEV.P($B$22:$B$23,$B$26,$C$22:$C$27,$D$22,$D$27,$D$29,$F$22:$F$25,$F$27:$F$29,$G$22,$G$26:$H$26,$G$28:$G$31,$H$28,$H$22:$H$23,$I$22:$I$24,$J$31,$K$24:$K$26,$L$25,$L$29,$L$22:$M$23,$N$23:$N$24,$O$22:$O$25,$N$27:$O$27,$O$28:$O$29,$N$29,)</f>
+        <v>15.005482414059852</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -5391,8 +5896,27 @@
         <f>AVERAGE(D23,D28,E22:E29,G23:G25,G27,H24:H25,J22:J30,O26,)</f>
         <v>87.28492732442507</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X34" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y34" s="12">
+        <f>_xlfn.STDEV.P($C$17:$C$20,$E$17:$E$18,$F$17:$F$19,$G$17:$H$21,$I$17:$I$19,$J$17:$J$21,$K$17:$K$20,$L$17:$M$19,$O$17:$O$20,)</f>
+        <v>16.151490618090353</v>
+      </c>
+      <c r="Z34" s="12">
+        <f>_xlfn.STDEV.P($E$23:$E$25,$E$27,$E$29,$G$25,$G$27,$G$29,$H$25:$H$26,$J$22:$J$31)</f>
+        <v>6.2417248503899359</v>
+      </c>
+      <c r="AA34" s="12">
+        <f>_xlfn.STDEV.P($B$17:$C$17,$C$18:$C$20,$D$18:$H$18,$E$17:$H$17,$E$19,$G$19:$H$20,$I$18,$J$18:$J$21,$K$17:$M$18,$N$18,$O$17:$O$19,)</f>
+        <v>16.493028407119795</v>
+      </c>
+      <c r="AB34" s="12">
+        <f>_xlfn.STDEV.P($D$23,$D$28,$E$22:$E$29,$G$23:$G$25,$G$27,$H$24:$H$25,$J$22:$J$30,$O$26,)</f>
+        <v>18.592863469340731</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -5439,7 +5963,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -5486,7 +6010,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -5533,7 +6057,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -5580,7 +6104,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -5627,7 +6151,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -5674,7 +6198,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -5721,7 +6245,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -5768,7 +6292,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -5815,7 +6339,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -5862,7 +6386,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -5909,7 +6433,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -5956,7 +6480,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -6003,7 +6527,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
@@ -8536,8 +9060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241070DA-DD4D-4AB4-A3A9-36992DF9DD98}">
   <dimension ref="A1:EK102"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Z36" sqref="Z36:AB49"/>
+    <sheetView topLeftCell="O18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43:Y47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12276,12 +12800,12 @@
         <v>0.11752658669058512</v>
       </c>
       <c r="S44">
-        <f>T39*SQRT(138)/SQRT(T39^2)</f>
-        <v>-11.74734012447073</v>
+        <f>S39*SQRT(138)/SQRT(1-S39^2)</f>
+        <v>-2.9918427441114992</v>
       </c>
       <c r="T44">
         <f>TDIST(ABS(S44),138,2)</f>
-        <v>1.6129081532651016E-22</v>
+        <v>3.2857368471777928E-3</v>
       </c>
       <c r="U44">
         <f>T39*SQRT(68)/SQRT(1-T39^2)</f>
@@ -12292,12 +12816,12 @@
         <v>0.50308617250879029</v>
       </c>
       <c r="W44">
-        <f>U39*SQRT(138)/SQRT(U39^2)</f>
-        <v>-11.74734012447073</v>
+        <f>U39*SQRT(138)/SQRT(1-U39^2)</f>
+        <v>-2.6332389255402271</v>
       </c>
       <c r="X44">
         <f>TDIST(ABS(W44),138,2)</f>
-        <v>1.6129081532651016E-22</v>
+        <v>9.422168570501991E-3</v>
       </c>
       <c r="Z44" t="s">
         <v>97</v>

--- a/kaiseki/around_100.xlsx
+++ b/kaiseki/around_100.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/kaiseki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{42A58D2E-D5CA-48C8-8BA7-9F77B007CBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB42F308-6D44-4704-9140-6BC0C9E65813}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{3037DCDD-8260-4626-87F8-31B4B9AE86F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4E046ED-6F10-453C-8A86-BD8398B11B54}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="135" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4875" yWindow="3690" windowWidth="19740" windowHeight="11220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="111">
   <si>
     <t>imahashi</t>
   </si>
@@ -449,6 +449,45 @@
   <si>
     <t>t 境界値 両側</t>
   </si>
+  <si>
+    <t>通常：事前</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジゼン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通常：事後</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SSE:レベル1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SSE:レベル2</t>
+  </si>
+  <si>
+    <t>SSE:レベル3</t>
+  </si>
+  <si>
+    <t>SSE:レベル4</t>
+  </si>
+  <si>
+    <t>SSE:レベル5</t>
+  </si>
+  <si>
+    <t>t-検定: 分散が等しくないと仮定した２標本による検定</t>
+  </si>
 </sst>
 </file>
 
@@ -622,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -644,6 +683,11 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -764,7 +808,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：0-20</c:v>
+                  <c:v>SSE:レベル1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -803,13 +847,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -841,7 +885,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：21-40</c:v>
+                  <c:v>SSE:レベル2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -916,13 +960,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -963,7 +1007,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：41-60</c:v>
+                  <c:v>SSE:レベル3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1044,13 +1088,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1094,7 +1138,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：61-80</c:v>
+                  <c:v>SSE:レベル4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1175,13 +1219,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1225,7 +1269,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：81-100</c:v>
+                  <c:v>SSE:レベル5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1306,13 +1350,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1645,7 +1689,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：0-20</c:v>
+                  <c:v>SSE:レベル1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1720,13 +1764,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1767,7 +1811,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：21-40</c:v>
+                  <c:v>SSE:レベル2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1848,13 +1892,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1898,7 +1942,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：41-60</c:v>
+                  <c:v>SSE:レベル3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1979,13 +2023,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -2029,7 +2073,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：61-80</c:v>
+                  <c:v>SSE:レベル4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2110,13 +2154,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -2160,7 +2204,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：81-100</c:v>
+                  <c:v>SSE:レベル5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2241,13 +2285,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -3646,16 +3690,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>329406</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>124619</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>627062</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>29369</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>123031</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>3119</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>420687</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>74556</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3682,16 +3726,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>535780</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>293687</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>138906</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>140437</xdr:rowOff>
+      <xdr:rowOff>33281</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4010,8 +4054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20:AB34"/>
+    <sheetView topLeftCell="P7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AI24" sqref="AI24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4912,13 +4956,13 @@
         <v>69.969969969969966</v>
       </c>
       <c r="S19" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="T19" t="s">
         <v>51</v>
       </c>
       <c r="U19" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="V19" t="s">
         <v>53</v>
@@ -4974,7 +5018,7 @@
         <v>54</v>
       </c>
       <c r="R20" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="X20" t="s">
         <v>60</v>
@@ -5030,7 +5074,7 @@
         <v>55</v>
       </c>
       <c r="R21" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="S21" s="12">
         <f>AVERAGE(D6)</f>
@@ -5110,7 +5154,7 @@
         <v>56</v>
       </c>
       <c r="R22" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="S22" s="12">
         <f>AVERAGE(B4:B6,D4:D5,I6)</f>
@@ -5198,7 +5242,7 @@
         <v>57</v>
       </c>
       <c r="R23" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="S23" s="12">
         <f>AVERAGE(B2:B3,D3,C5:C6,E6,I4:I5,K5:K6,L6)</f>
@@ -5286,7 +5330,7 @@
         <v>58</v>
       </c>
       <c r="R24" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="S24" s="12">
         <f>AVERAGE(C2:C4,D2,E2:E5,F2:F6,G2:G6,H2:H6,I2:I3,J2:J6,K2:K4,L2:L5,M2:M6,N2:N6,O2:O6)</f>
@@ -5562,13 +5606,13 @@
         <v>70.307243776631537</v>
       </c>
       <c r="S29" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="T29" t="s">
         <v>51</v>
       </c>
       <c r="U29" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="V29" t="s">
         <v>53</v>
@@ -5624,7 +5668,7 @@
         <v>54</v>
       </c>
       <c r="R30" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="T30" s="12">
         <f>AVERAGE(B30:B31,I30,K31,M22:M23,)</f>
@@ -5704,7 +5748,7 @@
         <v>55</v>
       </c>
       <c r="R31" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="S31" s="12">
         <f>AVERAGE(B17,B21,D21)</f>
@@ -5747,7 +5791,7 @@
         <v>56</v>
       </c>
       <c r="R32" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="S32" s="12">
         <f>AVERAGE(B19:B20,D20,D18,E21,I21,K21,)</f>
@@ -5793,7 +5837,7 @@
         <v>57</v>
       </c>
       <c r="R33" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="S33" s="12">
         <f>AVERAGE(D17,B18,C21,D19,E19:E20,F20:F21,I20,N17:N21,L20:M21,O21,)</f>
@@ -5878,7 +5922,7 @@
         <v>58</v>
       </c>
       <c r="R34" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="S34" s="12">
         <f>AVERAGE(C17:C20,E17:E18,F17:F19,G17:H21,I17:I19,J17:J21,K17:K20,L17:M19,O17:O20,)</f>
@@ -9060,8 +9104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241070DA-DD4D-4AB4-A3A9-36992DF9DD98}">
   <dimension ref="A1:EK102"/>
   <sheetViews>
-    <sheetView topLeftCell="O18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43:Y47"/>
+    <sheetView tabSelected="1" topLeftCell="X24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AL35" sqref="AL35:AN47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12029,7 +12073,7 @@
         <v>5.9453286403219274E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -12046,7 +12090,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -12110,7 +12154,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -12178,8 +12222,14 @@
       <c r="AD35" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH35" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -12235,7 +12285,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -12284,8 +12334,22 @@
       <c r="Q37" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH37" s="17"/>
+      <c r="AI37" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ37" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL37" s="17"/>
+      <c r="AM37" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN37" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -12357,8 +12421,26 @@
       <c r="AF38" s="14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH38" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI38" s="15">
+        <v>43.855063031049163</v>
+      </c>
+      <c r="AJ38" s="15">
+        <v>56.513154645931536</v>
+      </c>
+      <c r="AL38" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM38" s="15">
+        <v>82.220701521667209</v>
+      </c>
+      <c r="AN38" s="15">
+        <v>85.186161092360436</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -12441,8 +12523,26 @@
       <c r="AF39">
         <v>85.186161092360436</v>
       </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH39" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI39" s="15">
+        <v>45.68436851742571</v>
+      </c>
+      <c r="AJ39" s="15">
+        <v>125.95736461535235</v>
+      </c>
+      <c r="AL39" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM39" s="15">
+        <v>128.14867075153566</v>
+      </c>
+      <c r="AN39" s="15">
+        <v>133.99576044410614</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -12525,8 +12625,26 @@
       <c r="AF40">
         <v>133.99576044410614</v>
       </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH40" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI40" s="15">
+        <v>70</v>
+      </c>
+      <c r="AJ40" s="15">
+        <v>140</v>
+      </c>
+      <c r="AL40" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM40" s="15">
+        <v>70</v>
+      </c>
+      <c r="AN40" s="15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -12590,8 +12708,22 @@
       <c r="AF41">
         <v>140</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH41" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="15"/>
+      <c r="AL41" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="15"/>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -12661,8 +12793,22 @@
       <c r="AE42">
         <v>132.05610088262844</v>
       </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH42" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI42" s="15">
+        <v>201</v>
+      </c>
+      <c r="AJ42" s="15"/>
+      <c r="AL42" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM42" s="15">
+        <v>141</v>
+      </c>
+      <c r="AN42" s="15"/>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -12744,8 +12890,22 @@
       <c r="AE43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH43" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI43" s="15">
+        <v>-10.159592939043209</v>
+      </c>
+      <c r="AJ43" s="15"/>
+      <c r="AL43" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM43" s="15">
+        <v>-1.7760720814270123</v>
+      </c>
+      <c r="AN43" s="15"/>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -12835,8 +12995,22 @@
       <c r="AE44">
         <v>208</v>
       </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH44" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI44" s="15">
+        <v>3.8961244046216271E-20</v>
+      </c>
+      <c r="AJ44" s="15"/>
+      <c r="AL44" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM44" s="15">
+        <v>3.8938938525831635E-2</v>
+      </c>
+      <c r="AN44" s="15"/>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -12906,8 +13080,22 @@
       <c r="AE45">
         <v>-1.7628532593632755</v>
       </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH45" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI45" s="15">
+        <v>1.6524698419699793</v>
+      </c>
+      <c r="AJ45" s="15"/>
+      <c r="AL45" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM45" s="15">
+        <v>1.6557322872968145</v>
+      </c>
+      <c r="AN45" s="15"/>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -12989,8 +13177,22 @@
       <c r="AE46">
         <v>3.9696887831949475E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH46" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI46" s="15">
+        <v>7.7922488092432542E-20</v>
+      </c>
+      <c r="AJ46" s="15"/>
+      <c r="AL46" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM46" s="15">
+        <v>7.7877877051663269E-2</v>
+      </c>
+      <c r="AN46" s="15"/>
+    </row>
+    <row r="47" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -13080,8 +13282,22 @@
       <c r="AE47">
         <v>1.6522123760661407</v>
       </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH47" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI47" s="16">
+        <v>1.9718365067798587</v>
+      </c>
+      <c r="AJ47" s="16"/>
+      <c r="AL47" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM47" s="16">
+        <v>1.9769314886342577</v>
+      </c>
+      <c r="AN47" s="16"/>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
